--- a/五金账单.xlsx
+++ b/五金账单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
   <si>
     <t>样品快递费（扬州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,19 +821,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小乐乐的接机专车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乐乐的飞机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月份发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月还款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304,8*2.6，孔2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒*8瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3钻头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角带M-40*4条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.5内六角扳手*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小乐乐的接机专车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小乐乐的飞机票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月份发票</t>
+    <t>uf90价格15。三菱的扫刀18。宽刀25。T50的23。运费23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碗型金刚石砂轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥上海虹桥到台州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥台州到上海虹桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥上海虹桥到台州退票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥台州到上海虹桥退票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥朋友机票加预约车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北邢台快递费样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借给二哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀uf90边刀10把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥借出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华隆车刀uf504把uf40两把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上帮妈买的药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数控车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640夹头16、20、22、25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er丝攻、钻头刀柄，拔料器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀架、螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10方扳手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8、m10螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7字槽刀刀杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外圆，内外螺纹刀杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片槽刀10 桃型10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月份的加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧气管、气枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管连接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er20夹头5、6、7、9、11mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er20钻头刀柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数控车支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,6 +1029,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -899,12 +1090,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -999,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1038,6 +1235,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1318,13 +1527,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
@@ -1339,6 +1554,23 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>20191022</v>
+      </c>
+      <c r="B2" s="25">
+        <v>10993</v>
+      </c>
+      <c r="C2" s="25">
+        <v>10993</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,19 +1641,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="51.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1434,8 +1672,14 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5">
       <c r="A2">
         <v>20190818</v>
       </c>
@@ -1448,8 +1692,15 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>SUM($B$2:B2)</f>
+        <v>878</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>20190818</v>
       </c>
@@ -1457,14 +1708,24 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f>C2+B3</f>
+        <f t="shared" ref="C3:C39" si="0">C2+B3</f>
         <v>884</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>SUM($B$2:B3)</f>
+        <v>884</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>20190819</v>
       </c>
@@ -1472,14 +1733,30 @@
         <v>103</v>
       </c>
       <c r="C4">
-        <f>C3+B4</f>
+        <f t="shared" si="0"/>
         <v>987</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1">
+      <c r="E4">
+        <f>SUM($B$2:B4)</f>
+        <v>987</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>20190821</v>
       </c>
@@ -1487,14 +1764,30 @@
         <v>94</v>
       </c>
       <c r="C5">
-        <f>C4+B5</f>
+        <f t="shared" si="0"/>
         <v>1081</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f>SUM($B$2:B5)</f>
+        <v>1081</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20190915</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>20190822</v>
       </c>
@@ -1502,14 +1795,31 @@
         <v>357</v>
       </c>
       <c r="C6">
-        <f>C5+B6</f>
+        <f t="shared" si="0"/>
         <v>1438</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f>SUM($B$2:B6)</f>
+        <v>1438</v>
+      </c>
+      <c r="H6">
+        <v>20190911</v>
+      </c>
+      <c r="I6">
+        <v>844</v>
+      </c>
+      <c r="J6" s="1">
+        <f>J5+I6</f>
+        <v>4844</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>20190829</v>
       </c>
@@ -1517,14 +1827,31 @@
         <v>114</v>
       </c>
       <c r="C7">
-        <f>C6+B7</f>
+        <f t="shared" si="0"/>
         <v>1552</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <f>SUM($B$2:B7)</f>
+        <v>1552</v>
+      </c>
+      <c r="H7">
+        <v>20190916</v>
+      </c>
+      <c r="I7">
+        <v>-269</v>
+      </c>
+      <c r="J7" s="1">
+        <f>J6+I7</f>
+        <v>4575</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>20190829</v>
       </c>
@@ -1532,14 +1859,31 @@
         <v>870</v>
       </c>
       <c r="C8">
-        <f>C7+B8</f>
+        <f t="shared" si="0"/>
         <v>2422</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E8">
+        <f>SUM($B$2:B8)</f>
+        <v>2422</v>
+      </c>
+      <c r="H8">
+        <v>20191017</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+      <c r="J8" s="1">
+        <f>J7+I8</f>
+        <v>5075</v>
+      </c>
+      <c r="K8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>20190831</v>
       </c>
@@ -1547,14 +1891,18 @@
         <v>1518</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C12" si="0">C8+B9</f>
+        <f t="shared" si="0"/>
         <v>3940</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <f>SUM($B$2:B9)</f>
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>20190831</v>
       </c>
@@ -1568,8 +1916,12 @@
       <c r="D10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f>SUM($B$2:B10)</f>
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>20190831</v>
       </c>
@@ -1583,8 +1935,12 @@
       <c r="D11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f>SUM($B$2:B11)</f>
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>20190901</v>
       </c>
@@ -1596,15 +1952,542 @@
         <v>4106</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" ht="16.5">
-      <c r="D20" s="19" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <f>SUM($B$2:B12)</f>
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>20190905</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <f>SUM($B$2:B13)</f>
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>20190906</v>
+      </c>
+      <c r="B14">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <f>SUM($B$2:B14)</f>
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>20190907</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15">
+        <f>SUM($B$2:B15)</f>
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>20190907</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16">
+        <f>SUM($B$2:B16)</f>
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20190907</v>
+      </c>
+      <c r="B17">
+        <v>142</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5390</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17">
+        <f>SUM($B$2:B17)</f>
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20190909</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5438</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18">
+        <f>SUM($B$2:B18)</f>
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20190911</v>
+      </c>
+      <c r="B19">
+        <v>197</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5635</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19">
+        <f>SUM($B$2:B19)</f>
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>20190911</v>
+      </c>
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5815</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <f>SUM($B$2:B20)</f>
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20190912</v>
+      </c>
+      <c r="B21">
+        <v>-157.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5657.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21">
+        <f>SUM($B$2:B21)</f>
+        <v>5657.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20190912</v>
+      </c>
+      <c r="B22">
+        <v>-128</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5529.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <f>SUM($B$2:B22)</f>
+        <v>5529.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20190915</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5540.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <f>SUM($B$2:B23)</f>
+        <v>5540.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>20190917</v>
+      </c>
+      <c r="B24">
+        <v>162</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5702.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <f>SUM($B$2:B24)</f>
+        <v>5702.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>20190923</v>
+      </c>
+      <c r="B25">
+        <v>164</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5866.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <f>SUM($B$2:B25)</f>
+        <v>5866.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20190928</v>
+      </c>
+      <c r="B26">
+        <v>360</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6226.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <f>SUM($B$2:B26)</f>
+        <v>6226.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>20191005</v>
+      </c>
+      <c r="B27">
+        <v>617.20000000000005</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6843.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <f>SUM($B$2:B27)</f>
+        <v>6843.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="26">
+        <v>20191010</v>
+      </c>
+      <c r="B28" s="26">
+        <v>116.2</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="0"/>
+        <v>6959.9</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28">
+        <f>SUM($B$28:B28)</f>
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="26">
+        <v>20191015</v>
+      </c>
+      <c r="B29" s="26">
+        <v>364</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="0"/>
+        <v>7323.9</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29">
+        <f>SUM($B$28:B29)</f>
+        <v>480.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="26">
+        <v>20191015</v>
+      </c>
+      <c r="B30" s="26">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="0"/>
+        <v>7467.0999999999995</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30">
+        <f>SUM($B$28:B30)</f>
+        <v>623.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="26">
+        <v>20191015</v>
+      </c>
+      <c r="B31" s="26">
+        <v>8</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="0"/>
+        <v>7475.0999999999995</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31">
+        <f>SUM($B$28:B31)</f>
+        <v>631.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="26">
+        <v>20191019</v>
+      </c>
+      <c r="B32" s="26">
+        <v>14</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="0"/>
+        <v>7489.0999999999995</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32">
+        <f>SUM($B$28:B32)</f>
+        <v>645.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="26">
+        <v>20191022</v>
+      </c>
+      <c r="B33" s="26">
+        <v>120</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="0"/>
+        <v>7609.0999999999995</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33">
+        <f>SUM($B$28:B33)</f>
+        <v>765.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="26">
+        <v>20191022</v>
+      </c>
+      <c r="B34" s="26">
+        <v>95</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="0"/>
+        <v>7704.0999999999995</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34">
+        <f>SUM($B$28:B34)</f>
+        <v>860.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="26">
+        <v>20191022</v>
+      </c>
+      <c r="B35" s="26">
+        <v>169</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="0"/>
+        <v>7873.0999999999995</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35">
+        <f>SUM($B$28:B35)</f>
+        <v>1029.4000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="26">
+        <v>20191024</v>
+      </c>
+      <c r="B36" s="26">
+        <v>49.63</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="0"/>
+        <v>7922.73</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36">
+        <f>SUM($B$28:B36)</f>
+        <v>1079.0300000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="26">
+        <v>20191024</v>
+      </c>
+      <c r="B37" s="26">
+        <v>7.74</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="0"/>
+        <v>7930.4699999999993</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37">
+        <f>SUM($B$28:B37)</f>
+        <v>1086.7700000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="26">
+        <v>20191024</v>
+      </c>
+      <c r="B38" s="26">
+        <v>32.5</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="0"/>
+        <v>7962.9699999999993</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38">
+        <f>SUM($B$28:B38)</f>
+        <v>1119.2700000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="26">
+        <v>20191024</v>
+      </c>
+      <c r="B39" s="26">
+        <v>45</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="0"/>
+        <v>8007.9699999999993</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39">
+        <f>SUM($B$28:B39)</f>
+        <v>1164.2700000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1613,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2126,6 +3009,23 @@
         <v>34015.5</v>
       </c>
     </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>20190904</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,19 +3035,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickTop="1">
+    <row r="1" spans="1:21" ht="15" thickTop="1">
       <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
@@ -2163,28 +3066,47 @@
       <c r="E1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="H1" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="I1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="R1" s="20"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="23"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="13">
         <v>20190822</v>
       </c>
       <c r="B2" s="9">
-        <v>5000</v>
+        <v>11900</v>
       </c>
       <c r="C2" s="9">
         <v>12</v>
@@ -2193,21 +3115,38 @@
       <c r="E2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="13">
+      <c r="G2" s="13">
         <v>20190822</v>
       </c>
+      <c r="H2" s="9">
+        <v>5000</v>
+      </c>
       <c r="I2" s="9">
-        <v>11900</v>
-      </c>
-      <c r="J2" s="9">
         <v>12</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="13">
+        <v>20191008</v>
+      </c>
+      <c r="N2" s="9">
+        <v>6000</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
         <v>87</v>
@@ -2219,19 +3158,42 @@
         <v>89</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="I3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="M3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="13"/>
       <c r="B4" s="9">
         <v>20190907</v>
@@ -2239,19 +3201,43 @@
       <c r="C4" s="9">
         <v>85.68</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E4" s="14"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="9">
+        <v>20190907</v>
+      </c>
       <c r="I4" s="9">
+        <v>36</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="9">
+        <v>20191107</v>
+      </c>
+      <c r="O4" s="9">
+        <v>81</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="13">
         <v>20190907</v>
       </c>
-      <c r="J4" s="9">
-        <v>36</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="T4" s="9">
+        <f>C4+I4</f>
+        <v>121.68</v>
+      </c>
+      <c r="U4" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="13"/>
       <c r="B5" s="9">
         <f>B4+100</f>
@@ -2260,23 +3246,48 @@
       <c r="C5" s="9">
         <v>160.65</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="9">
+        <f>H4+100</f>
+        <v>20191007</v>
+      </c>
       <c r="I5" s="9">
-        <f>I4+100</f>
+        <v>67.5</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="9">
+        <v>20191207</v>
+      </c>
+      <c r="O5" s="9">
+        <v>81</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="13">
+        <f>S4+100</f>
         <v>20191007</v>
       </c>
-      <c r="J5" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="T5" s="9">
+        <f t="shared" ref="T5" si="0">C5+I5</f>
+        <v>228.15</v>
+      </c>
+      <c r="U5" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="13"/>
       <c r="B6" s="9">
-        <f t="shared" ref="B6:B15" si="0">B5+100</f>
+        <f t="shared" ref="B6:B15" si="1">B5+100</f>
         <v>20191107</v>
       </c>
       <c r="C6" s="18">
@@ -2284,21 +3295,40 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="14"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9">
-        <f t="shared" ref="I6:I7" si="1">I5+100</f>
+      <c r="G6" s="13"/>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H7" si="2">H5+100</f>
         <v>20191107</v>
       </c>
-      <c r="J6" s="18">
+      <c r="I6" s="18">
         <v>69.75</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="9"/>
+      <c r="K6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="18">
+        <v>20200107</v>
+      </c>
+      <c r="O6" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="13">
+        <f t="shared" ref="S6:S7" si="3">S5+100</f>
+        <v>20191107</v>
+      </c>
+      <c r="T6" s="9">
+        <f>C6+I6+O4</f>
+        <v>316.75</v>
+      </c>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="13"/>
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20191207</v>
       </c>
       <c r="C7" s="9">
@@ -2306,18 +3336,38 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="14"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
         <v>20191207</v>
       </c>
-      <c r="J7" s="18">
+      <c r="I7" s="18">
         <v>67.5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="9"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="9">
+        <f>N6+100</f>
+        <v>20200207</v>
+      </c>
+      <c r="O7" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="13">
+        <f t="shared" si="3"/>
+        <v>20191207</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" ref="T7:T16" si="4">C7+I7+O5</f>
+        <v>309.14999999999998</v>
+      </c>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="13"/>
       <c r="B8" s="9">
         <v>20200107</v>
@@ -2327,17 +3377,36 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9">
+      <c r="G8" s="13"/>
+      <c r="H8" s="9">
         <v>20200107</v>
       </c>
-      <c r="J8" s="18">
+      <c r="I8" s="18">
         <v>69.75</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="9"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9">
+        <f t="shared" ref="N8:N15" si="5">N7+100</f>
+        <v>20200307</v>
+      </c>
+      <c r="O8" s="18">
+        <v>78.3</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="13">
+        <v>20200107</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="4"/>
+        <v>319.45</v>
+      </c>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="13"/>
       <c r="B9" s="9">
         <f>B8+100</f>
@@ -2348,21 +3417,41 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9">
-        <f>I8+100</f>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9">
+        <f>H8+100</f>
         <v>20200207</v>
       </c>
-      <c r="J9" s="18">
+      <c r="I9" s="18">
         <v>69.75</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="9"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9">
+        <f t="shared" si="5"/>
+        <v>20200407</v>
+      </c>
+      <c r="O9" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="13">
+        <f>S8+100</f>
+        <v>20200207</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="4"/>
+        <v>319.45</v>
+      </c>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="13"/>
       <c r="B10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200307</v>
       </c>
       <c r="C10" s="18">
@@ -2370,21 +3459,41 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9">
-        <f t="shared" ref="I10:I15" si="2">I9+100</f>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9">
+        <f t="shared" ref="H10:H15" si="6">H9+100</f>
         <v>20200307</v>
       </c>
-      <c r="J10" s="18">
+      <c r="I10" s="18">
         <v>65.25</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="9"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="9">
+        <f t="shared" si="5"/>
+        <v>20200507</v>
+      </c>
+      <c r="O10" s="9">
+        <v>81</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="13">
+        <f t="shared" ref="S10:S19" si="7">S9+100</f>
+        <v>20200307</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="4"/>
+        <v>298.83999999999997</v>
+      </c>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="13"/>
       <c r="B11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200407</v>
       </c>
       <c r="C11" s="9">
@@ -2392,21 +3501,41 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9">
-        <f t="shared" si="2"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9">
+        <f>H10+100</f>
         <v>20200407</v>
       </c>
-      <c r="J11" s="18">
+      <c r="I11" s="18">
         <v>69.75</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="9"/>
+      <c r="K11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="9">
+        <f t="shared" si="5"/>
+        <v>20200607</v>
+      </c>
+      <c r="O11" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="13">
+        <f t="shared" si="7"/>
+        <v>20200407</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="4"/>
+        <v>319.45</v>
+      </c>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="13"/>
       <c r="B12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200507</v>
       </c>
       <c r="C12" s="9">
@@ -2414,21 +3543,41 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9">
-        <f t="shared" si="2"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="9">
+        <f t="shared" si="6"/>
         <v>20200507</v>
       </c>
-      <c r="J12" s="18">
+      <c r="I12" s="18">
         <v>67.5</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="9"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="9">
+        <f t="shared" si="5"/>
+        <v>20200707</v>
+      </c>
+      <c r="O12" s="9">
+        <v>81</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13">
+        <f t="shared" si="7"/>
+        <v>20200507</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="4"/>
+        <v>309.14999999999998</v>
+      </c>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="13"/>
       <c r="B13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200607</v>
       </c>
       <c r="C13" s="9">
@@ -2436,21 +3585,41 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9">
-        <f t="shared" si="2"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9">
+        <f t="shared" si="6"/>
         <v>20200607</v>
       </c>
-      <c r="J13" s="18">
+      <c r="I13" s="18">
         <v>69.75</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="9"/>
+      <c r="K13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="9">
+        <f t="shared" si="5"/>
+        <v>20200807</v>
+      </c>
+      <c r="O13" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="13">
+        <f t="shared" si="7"/>
+        <v>20200607</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="4"/>
+        <v>319.45</v>
+      </c>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="13"/>
       <c r="B14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200707</v>
       </c>
       <c r="C14" s="9">
@@ -2458,21 +3627,41 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9">
-        <f t="shared" si="2"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="9">
+        <f t="shared" si="6"/>
         <v>20200707</v>
       </c>
-      <c r="J14" s="18">
+      <c r="I14" s="18">
         <v>67.5</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="9"/>
+      <c r="K14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="9">
+        <f t="shared" si="5"/>
+        <v>20200907</v>
+      </c>
+      <c r="O14" s="18">
+        <v>83.7</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="13">
+        <f t="shared" si="7"/>
+        <v>20200707</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="4"/>
+        <v>309.14999999999998</v>
+      </c>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="13"/>
       <c r="B15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20200807</v>
       </c>
       <c r="C15" s="9">
@@ -2480,30 +3669,65 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9">
-        <f t="shared" si="2"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="9">
+        <f t="shared" si="6"/>
         <v>20200807</v>
       </c>
-      <c r="J15" s="18">
+      <c r="I15" s="18">
         <v>5069.75</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="9"/>
+      <c r="K15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="9">
+        <f t="shared" si="5"/>
+        <v>20201007</v>
+      </c>
+      <c r="O15" s="18">
+        <v>6081</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="13">
+        <f t="shared" si="7"/>
+        <v>20200807</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="4"/>
+        <v>17219.45</v>
+      </c>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="13"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="14"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13">
+        <f t="shared" si="7"/>
+        <v>20200907</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="4"/>
+        <v>83.7</v>
+      </c>
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
         <v>90</v>
@@ -2514,224 +3738,372 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="9">
-        <f>J4+J5+J6+J7+J8+J9+J10+J11+J12+J13+J14+69.75</f>
+      <c r="G17" s="15"/>
+      <c r="H17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="9">
+        <f>I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+69.75</f>
         <v>789.75</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="16">
+        <f>O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+81</f>
+        <v>985.50000000000011</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="13">
+        <f t="shared" si="7"/>
+        <v>20201007</v>
+      </c>
+      <c r="T17" s="9">
+        <v>6081</v>
+      </c>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickTop="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="S18" s="13">
+        <f t="shared" si="7"/>
+        <v>20201107</v>
+      </c>
+      <c r="T18" s="9"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="14"/>
-      <c r="H19" s="13"/>
+      <c r="E19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="S19" s="13">
+        <f t="shared" si="7"/>
+        <v>20201207</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="14"/>
-      <c r="H20" s="13"/>
+      <c r="E20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="13"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="14"/>
-      <c r="H21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="13"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="14"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="13"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="14"/>
-      <c r="H23" s="13"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="13"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="14"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="13"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="13"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="13"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="S25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="9">
+        <f>B2+H2+N2</f>
+        <v>22900</v>
+      </c>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1">
+      <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="14"/>
-      <c r="H26" s="13"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="13"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="S26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="16">
+        <f>C17+I17+O17</f>
+        <v>3654.82</v>
+      </c>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickTop="1">
+      <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="14"/>
-      <c r="H27" s="13"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="13"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="14"/>
-      <c r="H28" s="13"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="13"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="14"/>
-      <c r="H29" s="13"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="13"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="14"/>
-      <c r="H30" s="13"/>
+      <c r="E30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="13"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="14"/>
-      <c r="H31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="13"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="14"/>
-      <c r="H32" s="13"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="14"/>
-      <c r="H33" s="13"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickTop="1"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/五金账单.xlsx
+++ b/五金账单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>样品快递费（扬州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,70 @@
   </si>
   <si>
     <t>仪表支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承6202两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀T30、40，陶瓷刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀加硬进口车刀4把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排刀架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃型刀片5片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640精磨夹头2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10*1挤压丝攻2颗，底孔9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1/8丝攻2颗，底孔9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640夹头8、10、12、24、25、26、30、40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头9.2,9.3,9.4,9.5,5.9,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚砂轮180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12加大0.15两支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>josn车刀 10把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8josn车刀 20把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火器、三脚架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1244,6 +1308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1708,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C39" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C26" si="0">C2+B3</f>
         <v>884</v>
       </c>
       <c r="D3" t="s">
@@ -1718,12 +1783,12 @@
         <f>SUM($B$2:B3)</f>
         <v>884</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -2035,7 +2100,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>20190907</v>
       </c>
@@ -2054,7 +2119,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>20190909</v>
       </c>
@@ -2073,7 +2138,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>20190911</v>
       </c>
@@ -2092,7 +2157,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>20190911</v>
       </c>
@@ -2111,7 +2176,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20190912</v>
       </c>
@@ -2130,7 +2195,7 @@
         <v>5657.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>20190912</v>
       </c>
@@ -2149,7 +2214,7 @@
         <v>5529.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20190915</v>
       </c>
@@ -2168,7 +2233,7 @@
         <v>5540.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>20190917</v>
       </c>
@@ -2187,7 +2252,7 @@
         <v>5702.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>20190923</v>
       </c>
@@ -2206,7 +2271,7 @@
         <v>5866.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>20190928</v>
       </c>
@@ -2225,7 +2290,7 @@
         <v>6226.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>20191005</v>
       </c>
@@ -2233,7 +2298,7 @@
         <v>617.20000000000005</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>C26+B27</f>
         <v>6843.7</v>
       </c>
       <c r="D27" t="s">
@@ -2244,245 +2309,531 @@
         <v>6843.7</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="26">
+    <row r="28" spans="1:5">
+      <c r="A28" s="27">
+        <v>20191026</v>
+      </c>
+      <c r="B28" s="27">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C55" si="1">C27+B28</f>
+        <v>6853.7</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28">
+        <f>SUM($B$2:B28)</f>
+        <v>6853.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="27">
+        <v>20191026</v>
+      </c>
+      <c r="B29" s="27">
+        <v>154</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>7007.7</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <f>SUM($B$2:B29)</f>
+        <v>7007.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="27">
+        <v>20191030</v>
+      </c>
+      <c r="B30" s="27">
+        <v>79</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>7086.7</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <f>SUM($B$2:B30)</f>
+        <v>7086.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="27">
+        <v>20191104</v>
+      </c>
+      <c r="B31" s="27">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>7212.7</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31">
+        <f>SUM($B$2:B31)</f>
+        <v>7212.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="27">
+        <v>20191104</v>
+      </c>
+      <c r="B32" s="27">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>7348.7</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32">
+        <f>SUM($B$2:B32)</f>
+        <v>7348.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="27">
+        <v>20191104</v>
+      </c>
+      <c r="B33" s="27">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>7397.7</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33">
+        <f>SUM($B$2:B33)</f>
+        <v>7397.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="27">
+        <v>20191104</v>
+      </c>
+      <c r="B34" s="27">
+        <v>224</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>7621.7</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34">
+        <f>SUM($B$2:B34)</f>
+        <v>7621.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="27">
+        <v>20191108</v>
+      </c>
+      <c r="B35" s="27">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>7717.7</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35">
+        <f>SUM($B$2:B35)</f>
+        <v>7717.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="27">
+        <v>20191108</v>
+      </c>
+      <c r="B36" s="27">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>7841.7</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36">
+        <f>SUM($B$2:B36)</f>
+        <v>7841.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="27">
+        <v>20191108</v>
+      </c>
+      <c r="B37" s="27">
+        <v>160.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>8002.2</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37">
+        <f>SUM($B$2:B37)</f>
+        <v>8002.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="27">
+        <v>20191109</v>
+      </c>
+      <c r="B38" s="27">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>8064.2</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38">
+        <f>SUM($B$2:B38)</f>
+        <v>8064.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="27">
+        <v>20191111</v>
+      </c>
+      <c r="B39" s="27">
+        <v>97.67</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>8161.87</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39">
+        <f>SUM($B$2:B39)</f>
+        <v>8161.87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="27">
+        <v>20191115</v>
+      </c>
+      <c r="B40" s="27">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>8198.869999999999</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <f>SUM($B$2:B40)</f>
+        <v>8198.869999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="27">
+        <v>20191115</v>
+      </c>
+      <c r="B41" s="27">
+        <v>260</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>8458.869999999999</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41">
+        <f>SUM($B$2:B41)</f>
+        <v>8458.869999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="27">
+        <v>20191116</v>
+      </c>
+      <c r="B42" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>8486.369999999999</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42">
+        <f>SUM($B$2:B42)</f>
+        <v>8486.369999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>8486.369999999999</v>
+      </c>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="26">
         <v>20191010</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B44" s="26">
         <v>116.2</v>
       </c>
-      <c r="C28" s="26">
-        <f t="shared" si="0"/>
-        <v>6959.9</v>
-      </c>
-      <c r="D28" s="26" t="s">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>8602.57</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28">
-        <f>SUM($B$28:B28)</f>
+      <c r="F44">
+        <f>SUM($B$44:B44)</f>
         <v>116.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="26">
+    <row r="45" spans="1:6">
+      <c r="A45" s="26">
         <v>20191015</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B45" s="26">
         <v>364</v>
       </c>
-      <c r="C29" s="26">
-        <f t="shared" si="0"/>
-        <v>7323.9</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>8966.57</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29">
-        <f>SUM($B$28:B29)</f>
+      <c r="F45">
+        <f>SUM($B$44:B45)</f>
         <v>480.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="26">
+    <row r="46" spans="1:6">
+      <c r="A46" s="26">
         <v>20191015</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B46" s="26">
         <v>143.19999999999999</v>
       </c>
-      <c r="C30" s="26">
-        <f t="shared" si="0"/>
-        <v>7467.0999999999995</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>9109.77</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30">
-        <f>SUM($B$28:B30)</f>
+      <c r="F46">
+        <f>SUM($B$44:B46)</f>
         <v>623.4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="26">
+    <row r="47" spans="1:6">
+      <c r="A47" s="26">
         <v>20191015</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B47" s="26">
         <v>8</v>
       </c>
-      <c r="C31" s="26">
-        <f t="shared" si="0"/>
-        <v>7475.0999999999995</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>9117.77</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31">
-        <f>SUM($B$28:B31)</f>
+      <c r="F47">
+        <f>SUM($B$44:B47)</f>
         <v>631.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="26">
+    <row r="48" spans="1:6">
+      <c r="A48" s="26">
         <v>20191019</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B48" s="26">
         <v>14</v>
       </c>
-      <c r="C32" s="26">
-        <f t="shared" si="0"/>
-        <v>7489.0999999999995</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>9131.77</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32">
-        <f>SUM($B$28:B32)</f>
+      <c r="F48">
+        <f>SUM($B$44:B48)</f>
         <v>645.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="26">
+    <row r="49" spans="1:6">
+      <c r="A49" s="26">
         <v>20191022</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B49" s="26">
         <v>120</v>
       </c>
-      <c r="C33" s="26">
-        <f t="shared" si="0"/>
-        <v>7609.0999999999995</v>
-      </c>
-      <c r="D33" s="26" t="s">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>9251.77</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33">
-        <f>SUM($B$28:B33)</f>
+      <c r="F49">
+        <f>SUM($B$44:B49)</f>
         <v>765.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="26">
+    <row r="50" spans="1:6">
+      <c r="A50" s="26">
         <v>20191022</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B50" s="26">
         <v>95</v>
       </c>
-      <c r="C34" s="26">
-        <f t="shared" si="0"/>
-        <v>7704.0999999999995</v>
-      </c>
-      <c r="D34" s="26" t="s">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>9346.77</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34">
-        <f>SUM($B$28:B34)</f>
+      <c r="F50">
+        <f>SUM($B$44:B50)</f>
         <v>860.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="26">
+    <row r="51" spans="1:6">
+      <c r="A51" s="26">
         <v>20191022</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B51" s="26">
         <v>169</v>
       </c>
-      <c r="C35" s="26">
-        <f t="shared" si="0"/>
-        <v>7873.0999999999995</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>9515.77</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35">
-        <f>SUM($B$28:B35)</f>
+      <c r="F51">
+        <f>SUM($B$44:B51)</f>
         <v>1029.4000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="26">
+    <row r="52" spans="1:6">
+      <c r="A52" s="26">
         <v>20191024</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B52" s="26">
         <v>49.63</v>
       </c>
-      <c r="C36" s="26">
-        <f t="shared" si="0"/>
-        <v>7922.73</v>
-      </c>
-      <c r="D36" s="26" t="s">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>9565.4</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36">
-        <f>SUM($B$28:B36)</f>
+      <c r="F52">
+        <f>SUM($B$44:B52)</f>
         <v>1079.0300000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="26">
+    <row r="53" spans="1:6">
+      <c r="A53" s="26">
         <v>20191024</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B53" s="26">
         <v>7.74</v>
       </c>
-      <c r="C37" s="26">
-        <f t="shared" si="0"/>
-        <v>7930.4699999999993</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>9573.14</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37">
-        <f>SUM($B$28:B37)</f>
+      <c r="F53">
+        <f>SUM($B$44:B53)</f>
         <v>1086.7700000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="26">
+    <row r="54" spans="1:6">
+      <c r="A54" s="26">
         <v>20191024</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B54" s="26">
         <v>32.5</v>
       </c>
-      <c r="C38" s="26">
-        <f t="shared" si="0"/>
-        <v>7962.9699999999993</v>
-      </c>
-      <c r="D38" s="26" t="s">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>9605.64</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38">
-        <f>SUM($B$28:B38)</f>
+      <c r="F54">
+        <f>SUM($B$44:B54)</f>
         <v>1119.2700000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="26">
+    <row r="55" spans="1:6">
+      <c r="A55" s="26">
         <v>20191024</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B55" s="26">
         <v>45</v>
       </c>
-      <c r="C39" s="26">
-        <f t="shared" si="0"/>
-        <v>8007.9699999999993</v>
-      </c>
-      <c r="D39" s="26" t="s">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>9650.64</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39">
-        <f>SUM($B$28:B39)</f>
+      <c r="F55">
+        <f>SUM($B$44:B55)</f>
         <v>1164.2700000000002</v>
       </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="27"/>
+      <c r="D58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3038,7 +3389,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="U5" sqref="U5:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3223,7 +3574,9 @@
       <c r="O4" s="9">
         <v>81</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="9"/>
       <c r="S4" s="13">
@@ -3293,7 +3646,9 @@
       <c r="C6" s="18">
         <v>166</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="G6" s="13"/>
       <c r="H6" s="9">
@@ -3303,7 +3658,9 @@
       <c r="I6" s="18">
         <v>69.75</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="M6" s="13"/>
       <c r="N6" s="18">
@@ -3323,7 +3680,9 @@
         <f>C6+I6+O4</f>
         <v>316.75</v>
       </c>
-      <c r="U6" s="14"/>
+      <c r="U6" s="14">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="13"/>
